--- a/resources/assets/excel/Players.xlsx
+++ b/resources/assets/excel/Players.xlsx
@@ -264,7 +264,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,10 +275,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -301,7 +297,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -506,7 +502,7 @@
       <c r="D6" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="1" t="n">
         <v>62</v>
       </c>
       <c r="F6" s="2" t="n">
@@ -541,7 +537,7 @@
       <c r="D7" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="2" t="n">
@@ -576,7 +572,7 @@
       <c r="D8" s="0" t="n">
         <v>172</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="1" t="n">
         <v>63</v>
       </c>
       <c r="F8" s="2" t="n">
@@ -611,7 +607,7 @@
       <c r="D9" s="0" t="n">
         <v>173</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="2" t="n">
@@ -646,7 +642,7 @@
       <c r="D10" s="0" t="n">
         <v>174</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="1" t="n">
         <v>64</v>
       </c>
       <c r="F10" s="2" t="n">
@@ -681,7 +677,7 @@
       <c r="D11" s="0" t="n">
         <v>175</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="2" t="n">
@@ -716,7 +712,7 @@
       <c r="D12" s="0" t="n">
         <v>176</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="1" t="n">
         <v>65</v>
       </c>
       <c r="F12" s="2" t="n">
@@ -751,7 +747,7 @@
       <c r="D13" s="0" t="n">
         <v>177</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="2" t="n">
@@ -786,7 +782,7 @@
       <c r="D14" s="0" t="n">
         <v>178</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="1" t="n">
         <v>66</v>
       </c>
       <c r="F14" s="2" t="n">
@@ -821,7 +817,7 @@
       <c r="D15" s="0" t="n">
         <v>179</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="2" t="n">
@@ -856,7 +852,7 @@
       <c r="D16" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="1" t="n">
         <v>67</v>
       </c>
       <c r="F16" s="2" t="n">
@@ -891,7 +887,7 @@
       <c r="D17" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="2" t="n">
@@ -926,7 +922,7 @@
       <c r="D18" s="0" t="n">
         <v>182</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="1" t="n">
         <v>68</v>
       </c>
       <c r="F18" s="2" t="n">
@@ -961,7 +957,7 @@
       <c r="D19" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F19" s="2" t="n">
@@ -996,7 +992,7 @@
       <c r="D20" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="1" t="n">
         <v>69</v>
       </c>
       <c r="F20" s="2" t="n">
@@ -1031,7 +1027,7 @@
       <c r="D21" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F21" s="2" t="n">
@@ -1066,7 +1062,7 @@
       <c r="D22" s="0" t="n">
         <v>186</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="1" t="n">
         <v>70</v>
       </c>
       <c r="F22" s="2" t="n">
@@ -1101,7 +1097,7 @@
       <c r="D23" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F23" s="2" t="n">
@@ -1136,7 +1132,7 @@
       <c r="D24" s="0" t="n">
         <v>188</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="1" t="n">
         <v>71</v>
       </c>
       <c r="F24" s="2" t="n">
@@ -1171,7 +1167,7 @@
       <c r="D25" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F25" s="2" t="n">
@@ -1206,7 +1202,7 @@
       <c r="D26" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="1" t="n">
         <v>72</v>
       </c>
       <c r="F26" s="2" t="n">

--- a/resources/assets/excel/Players.xlsx
+++ b/resources/assets/excel/Players.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="103">
   <si>
     <t>name</t>
   </si>
@@ -73,6 +73,9 @@
     <t>Игрок 1_2</t>
   </si>
   <si>
+    <t>166.5</t>
+  </si>
+  <si>
     <t>60.5</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>Игрок 1_5</t>
   </si>
   <si>
+    <t>166.6</t>
+  </si>
+  <si>
     <t>Вратарь</t>
   </si>
   <si>
@@ -112,6 +118,9 @@
     <t>Игрок 2_3</t>
   </si>
   <si>
+    <t>166.7</t>
+  </si>
+  <si>
     <t>63.5</t>
   </si>
   <si>
@@ -127,6 +136,9 @@
     <t>Игрок 3_1</t>
   </si>
   <si>
+    <t>166.8</t>
+  </si>
+  <si>
     <t>Игрок 3_2</t>
   </si>
   <si>
@@ -139,6 +151,9 @@
     <t>Игрок 3_4</t>
   </si>
   <si>
+    <t>166.9</t>
+  </si>
+  <si>
     <t>66.5</t>
   </si>
   <si>
@@ -154,6 +169,9 @@
     <t>Игрок 4_2</t>
   </si>
   <si>
+    <t>166.10</t>
+  </si>
+  <si>
     <t>Игрок 4_3</t>
   </si>
   <si>
@@ -166,6 +184,9 @@
     <t>Игрок 4_5</t>
   </si>
   <si>
+    <t>166.11</t>
+  </si>
+  <si>
     <t>69.5</t>
   </si>
   <si>
@@ -181,6 +202,9 @@
     <t>Игрок 5_3</t>
   </si>
   <si>
+    <t>166.12</t>
+  </si>
+  <si>
     <t>Игрок 5_4</t>
   </si>
   <si>
@@ -188,6 +212,120 @@
   </si>
   <si>
     <t>Игрок 5_5</t>
+  </si>
+  <si>
+    <t>Игрок 6_1</t>
+  </si>
+  <si>
+    <t>166.13</t>
+  </si>
+  <si>
+    <t>Игрок 6_2</t>
+  </si>
+  <si>
+    <t>60.6</t>
+  </si>
+  <si>
+    <t>Игрок 6_3</t>
+  </si>
+  <si>
+    <t>Игрок 6_4</t>
+  </si>
+  <si>
+    <t>166.14</t>
+  </si>
+  <si>
+    <t>61.6</t>
+  </si>
+  <si>
+    <t>Игрок 6_5</t>
+  </si>
+  <si>
+    <t>Игрок 7_2</t>
+  </si>
+  <si>
+    <t>62.6</t>
+  </si>
+  <si>
+    <t>166.15</t>
+  </si>
+  <si>
+    <t>Игрок 7_3</t>
+  </si>
+  <si>
+    <t>63.6</t>
+  </si>
+  <si>
+    <t>Игрок 7_4</t>
+  </si>
+  <si>
+    <t>Игрок 7_5</t>
+  </si>
+  <si>
+    <t>166.16</t>
+  </si>
+  <si>
+    <t>64.6</t>
+  </si>
+  <si>
+    <t>Игрок 8_1</t>
+  </si>
+  <si>
+    <t>Нижнекамск</t>
+  </si>
+  <si>
+    <t>Игрок 8_2</t>
+  </si>
+  <si>
+    <t>65.6</t>
+  </si>
+  <si>
+    <t>Игрок 8_3</t>
+  </si>
+  <si>
+    <t>166.17</t>
+  </si>
+  <si>
+    <t>Игрок 8_4</t>
+  </si>
+  <si>
+    <t>66.6</t>
+  </si>
+  <si>
+    <t>Игрок 8_5</t>
+  </si>
+  <si>
+    <t>Игрок 9_1</t>
+  </si>
+  <si>
+    <t>166.18</t>
+  </si>
+  <si>
+    <t>67.6</t>
+  </si>
+  <si>
+    <t>Елабуга</t>
+  </si>
+  <si>
+    <t>Игрок 9_2</t>
+  </si>
+  <si>
+    <t>Игрок 9_3</t>
+  </si>
+  <si>
+    <t>68.6</t>
+  </si>
+  <si>
+    <t>Игрок 9_4</t>
+  </si>
+  <si>
+    <t>166.19</t>
+  </si>
+  <si>
+    <t>Игрок 9_5</t>
+  </si>
+  <si>
+    <t>69.6</t>
   </si>
 </sst>
 </file>
@@ -294,10 +432,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -359,7 +497,7 @@
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>166</v>
       </c>
       <c r="E2" s="1" t="n">
@@ -394,20 +532,20 @@
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>167</v>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>34628</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>14</v>
@@ -421,7 +559,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -429,8 +567,8 @@
       <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>168</v>
+      <c r="D4" s="1" t="n">
+        <v>167</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>61</v>
@@ -439,7 +577,7 @@
         <v>34629</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>13</v>
@@ -456,7 +594,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
@@ -464,20 +602,20 @@
       <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>169</v>
+      <c r="D5" s="1" t="n">
+        <v>167</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>34630</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>14</v>
@@ -491,7 +629,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -499,8 +637,8 @@
       <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>170</v>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>62</v>
@@ -509,7 +647,7 @@
         <v>34631</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>13</v>
@@ -526,7 +664,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
@@ -534,11 +672,11 @@
       <c r="C7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>171</v>
+      <c r="D7" s="1" t="n">
+        <v>168</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>34632</v>
@@ -547,7 +685,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>14</v>
@@ -561,7 +699,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2</v>
@@ -569,8 +707,8 @@
       <c r="C8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>172</v>
+      <c r="D8" s="1" t="n">
+        <v>168</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>63</v>
@@ -579,7 +717,7 @@
         <v>34633</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>13</v>
@@ -596,7 +734,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2</v>
@@ -604,20 +742,20 @@
       <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>173</v>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>34634</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>14</v>
@@ -631,7 +769,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2</v>
@@ -639,8 +777,8 @@
       <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>174</v>
+      <c r="D10" s="1" t="n">
+        <v>169</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>64</v>
@@ -649,7 +787,7 @@
         <v>34635</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>13</v>
@@ -666,7 +804,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2</v>
@@ -674,20 +812,20 @@
       <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>175</v>
+      <c r="D11" s="1" t="n">
+        <v>169</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>34636</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>14</v>
@@ -701,7 +839,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>3</v>
@@ -709,8 +847,8 @@
       <c r="C12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>176</v>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>65</v>
@@ -736,7 +874,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -744,20 +882,20 @@
       <c r="C13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>177</v>
+      <c r="D13" s="1" t="n">
+        <v>170</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>34638</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>14</v>
@@ -771,7 +909,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>3</v>
@@ -779,8 +917,8 @@
       <c r="C14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>178</v>
+      <c r="D14" s="1" t="n">
+        <v>170</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>66</v>
@@ -789,7 +927,7 @@
         <v>34639</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>13</v>
@@ -806,7 +944,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
@@ -814,20 +952,20 @@
       <c r="C15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>179</v>
+      <c r="D15" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>34640</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>14</v>
@@ -841,7 +979,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3</v>
@@ -849,8 +987,8 @@
       <c r="C16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>180</v>
+      <c r="D16" s="1" t="n">
+        <v>171</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>67</v>
@@ -859,7 +997,7 @@
         <v>34641</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>13</v>
@@ -876,7 +1014,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>4</v>
@@ -884,11 +1022,11 @@
       <c r="C17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>181</v>
+      <c r="D17" s="1" t="n">
+        <v>171</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>34642</v>
@@ -897,7 +1035,7 @@
         <v>12</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>14</v>
@@ -911,7 +1049,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>4</v>
@@ -919,8 +1057,8 @@
       <c r="C18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>182</v>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>68</v>
@@ -929,7 +1067,7 @@
         <v>34643</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>13</v>
@@ -946,7 +1084,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>4</v>
@@ -954,20 +1092,20 @@
       <c r="C19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>183</v>
+      <c r="D19" s="1" t="n">
+        <v>172</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>34644</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>14</v>
@@ -981,7 +1119,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>4</v>
@@ -989,8 +1127,8 @@
       <c r="C20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>184</v>
+      <c r="D20" s="1" t="n">
+        <v>172</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>69</v>
@@ -999,7 +1137,7 @@
         <v>34645</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>13</v>
@@ -1016,7 +1154,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>4</v>
@@ -1024,20 +1162,20 @@
       <c r="C21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>185</v>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>34646</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>14</v>
@@ -1051,7 +1189,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>5</v>
@@ -1059,8 +1197,8 @@
       <c r="C22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>186</v>
+      <c r="D22" s="1" t="n">
+        <v>173</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>70</v>
@@ -1086,7 +1224,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>5</v>
@@ -1094,20 +1232,20 @@
       <c r="C23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>187</v>
+      <c r="D23" s="1" t="n">
+        <v>173</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>34648</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>14</v>
@@ -1121,7 +1259,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>5</v>
@@ -1129,8 +1267,8 @@
       <c r="C24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>188</v>
+      <c r="D24" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>71</v>
@@ -1139,7 +1277,7 @@
         <v>34649</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>13</v>
@@ -1156,7 +1294,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>5</v>
@@ -1164,20 +1302,20 @@
       <c r="C25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>189</v>
+      <c r="D25" s="1" t="n">
+        <v>174</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>34650</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>14</v>
@@ -1191,7 +1329,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>5</v>
@@ -1199,8 +1337,8 @@
       <c r="C26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>190</v>
+      <c r="D26" s="1" t="n">
+        <v>174</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>72</v>
@@ -1209,18 +1347,718 @@
         <v>34651</v>
       </c>
       <c r="G26" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="H26" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="0" t="s">
+      <c r="D27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>34652</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>34653</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>34654</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>34655</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>34656</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>34657</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>34658</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>34659</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>34660</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>34661</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>34662</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>34663</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>34664</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>34665</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>34666</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>34667</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>34668</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>34669</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>34670</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>34671</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="0" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1243,7 +2081,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K2:K46 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1269,7 +2107,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K2:K46 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
